--- a/helpbook.xlsx
+++ b/helpbook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SoftUni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487AAA77-D814-483A-A0B2-7C9CC5290DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0578A06-459C-4046-B3FB-75E8A5F06428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{01BCE898-FA68-405B-A481-E374F5E5E0C8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Синтаксис</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>GitBash commands</t>
+  </si>
+  <si>
+    <t>git --help</t>
+  </si>
+  <si>
+    <t>показва всички команди и тяхното значение</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -486,6 +492,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -800,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD9D338-9812-4F11-8F24-59E640DA3D72}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,6 +1156,14 @@
         <v>80</v>
       </c>
     </row>
+    <row r="46" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/helpbook.xlsx
+++ b/helpbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SoftUni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0578A06-459C-4046-B3FB-75E8A5F06428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54444B79-CA9E-4737-A453-98490B3C779B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{01BCE898-FA68-405B-A481-E374F5E5E0C8}"/>
+    <workbookView xWindow="1125" yWindow="3525" windowWidth="15375" windowHeight="7995" xr2:uid="{01BCE898-FA68-405B-A481-E374F5E5E0C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Синтаксис</t>
   </si>
@@ -293,12 +293,27 @@
   <si>
     <t>показва всички команди и тяхното значение</t>
   </si>
+  <si>
+    <t>Fundamental</t>
+  </si>
+  <si>
+    <t>print(max(first_number, second_number, third_number))</t>
+  </si>
+  <si>
+    <t>Дава най-голямото число измежду всички</t>
+  </si>
+  <si>
+    <t>word = input()   print(word[:: -1])</t>
+  </si>
+  <si>
+    <t>дава ти думата на обратно</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +379,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -463,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -493,6 +515,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -807,15 +830,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD9D338-9812-4F11-8F24-59E640DA3D72}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.28515625" customWidth="1"/>
+    <col min="1" max="1" width="95.140625" customWidth="1"/>
     <col min="2" max="2" width="147.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1164,6 +1187,28 @@
         <v>83</v>
       </c>
     </row>
+    <row r="47" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:2" ht="111.75" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A51" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="70.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/helpbook.xlsx
+++ b/helpbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\SoftUni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54444B79-CA9E-4737-A453-98490B3C779B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3427C75A-37CE-4663-9D9B-A9AB1C832457}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="3525" windowWidth="15375" windowHeight="7995" xr2:uid="{01BCE898-FA68-405B-A481-E374F5E5E0C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{01BCE898-FA68-405B-A481-E374F5E5E0C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Синтаксис</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>дава ти думата на обратно</t>
+  </si>
+  <si>
+    <t>after -  git log - enter - q (to go back to writing)</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1190,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="51" spans="1:2" ht="111.75" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A51" s="21" t="s">
         <v>84</v>
